--- a/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_4_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_4_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500731</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500731</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177831</v>
+        <v>3940022.790763971</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177831</v>
+        <v>3940022.790763971</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647482716.269086</v>
+        <v>62480733.92989163</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480.610968662598</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C2" t="n">
         <v>449.4745782429939</v>
@@ -673,7 +673,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E2" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138922</v>
       </c>
       <c r="F2" t="n">
         <v>404.8896287080119</v>
@@ -998,10 +998,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G8" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I9" t="n">
         <v>108.929687778141</v>
@@ -1384,7 +1384,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138922</v>
       </c>
       <c r="F11" t="n">
         <v>404.8896287080119</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y14" t="n">
-        <v>511.3174326828064</v>
+        <v>509.92908838983</v>
       </c>
     </row>
     <row r="15">
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S24" t="n">
         <v>408.192915058951</v>
@@ -2465,7 +2465,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W24" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X24" t="n">
         <v>419.8627394453875</v>
@@ -2499,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H26" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2781,13 +2781,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2815,7 +2815,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T29" t="n">
         <v>560.964918411981</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E32" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138922</v>
       </c>
       <c r="F32" t="n">
-        <v>403.5012844150354</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
         <v>397.8840054528454</v>
@@ -3210,52 +3210,52 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
-        <v>396.4956611598724</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
         <v>347.8590406130752</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S36" t="n">
         <v>408.192915058951</v>
@@ -3413,7 +3413,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W36" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X36" t="n">
         <v>419.8627394453875</v>
@@ -3447,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I37" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D38" t="n">
-        <v>408.9508114468767</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E38" t="n">
         <v>404.3632896068686</v>
@@ -3574,7 +3574,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X38" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676915</v>
       </c>
       <c r="Y38" t="n">
         <v>511.3174326828064</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S39" t="n">
         <v>408.192915058951</v>
@@ -3650,7 +3650,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W39" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X39" t="n">
         <v>419.8627394453875</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>165.2127885434264</v>
+        <v>67.808644398718</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F41" t="n">
-        <v>403.5012844150389</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
         <v>397.8840054528454</v>
@@ -3808,7 +3808,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W41" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316879713</v>
       </c>
       <c r="X41" t="n">
         <v>592.2818334606677</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
         <v>408.192915058951</v>
@@ -3887,7 +3887,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W42" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X42" t="n">
         <v>419.8627394453875</v>
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T44" t="n">
-        <v>559.5765741190085</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U44" t="n">
         <v>648.751427201877</v>
@@ -4051,7 +4051,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>511.3174326828064</v>
+        <v>509.92908838983</v>
       </c>
     </row>
     <row r="45">
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
         <v>408.192915058951</v>
@@ -4130,7 +4130,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y45" t="n">
-        <v>399.3913927661343</v>
+        <v>397.8576928085612</v>
       </c>
     </row>
     <row r="46">
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E2" t="n">
         <v>1303.215227044376</v>
@@ -4494,10 +4494,10 @@
         <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L4" t="n">
         <v>457.4949902104935</v>
@@ -4570,25 +4570,25 @@
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>1339.420289043491</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L5" t="n">
-        <v>2257.013012360075</v>
+        <v>3071.357825473567</v>
       </c>
       <c r="M5" t="n">
-        <v>2739.192211873577</v>
+        <v>3553.537024987069</v>
       </c>
       <c r="N5" t="n">
-        <v>3304.235275746249</v>
+        <v>4118.580088859741</v>
       </c>
       <c r="O5" t="n">
-        <v>4214.390158686993</v>
+        <v>5028.734971800485</v>
       </c>
       <c r="P5" t="n">
         <v>5864.602299897899</v>
@@ -4646,7 +4646,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4728,13 +4728,13 @@
         <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J7" t="n">
-        <v>290.4466099967136</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L7" t="n">
         <v>457.4949902104935</v>
@@ -4801,37 +4801,37 @@
         <v>892.8334361342871</v>
       </c>
       <c r="G8" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>145.3883603820878</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>604.2055058577398</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>2053.555015773447</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L8" t="n">
-        <v>3797.935015773448</v>
+        <v>3681.051378010445</v>
       </c>
       <c r="M8" t="n">
-        <v>4280.114215286951</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N8" t="n">
-        <v>4845.157279159623</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O8" t="n">
-        <v>5755.312162100367</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P8" t="n">
-        <v>6591.17949019778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q8" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
@@ -4880,7 +4880,7 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G9" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
         <v>250.9899876546879</v>
@@ -4968,13 +4968,13 @@
         <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M10" t="n">
         <v>457.4949902104935</v>
@@ -5032,13 +5032,13 @@
         <v>1710.260626351338</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5050,13 +5050,13 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1713.790319599033</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L11" t="n">
-        <v>2631.383042915616</v>
+        <v>2595.354589746545</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577523947</v>
+        <v>3077.533789260047</v>
       </c>
       <c r="N11" t="n">
         <v>4728.273641396619</v>
@@ -5181,25 +5181,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H13" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I13" t="n">
         <v>140.96</v>
@@ -5244,13 +5244,13 @@
         <v>307.8416045893197</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="14">
@@ -5260,34 +5260,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J14" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K14" t="n">
-        <v>2550.716641651425</v>
+        <v>1936.671378010444</v>
       </c>
       <c r="L14" t="n">
         <v>3681.051378010445</v>
@@ -5329,7 +5329,7 @@
         <v>3582.109595665706</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="15">
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5481,13 +5481,13 @@
         <v>307.8416045893197</v>
       </c>
       <c r="W16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="17">
@@ -5518,28 +5518,28 @@
         <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L17" t="n">
-        <v>2257.013012360075</v>
+        <v>3681.051378010445</v>
       </c>
       <c r="M17" t="n">
-        <v>2739.192211873577</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N17" t="n">
-        <v>3304.235275746249</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O17" t="n">
-        <v>4214.390158686993</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P17" t="n">
-        <v>5864.602299897899</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q17" t="n">
         <v>6931.116362236999</v>
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5718,13 +5718,13 @@
         <v>307.8416045893197</v>
       </c>
       <c r="W19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C20" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K20" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L20" t="n">
-        <v>3042.307675747712</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M20" t="n">
-        <v>3524.486875261216</v>
+        <v>3194.417427023051</v>
       </c>
       <c r="N20" t="n">
         <v>4845.157279159623</v>
@@ -5785,25 +5785,25 @@
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T20" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U20" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V20" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W20" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X20" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y20" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="21">
@@ -5992,25 +5992,25 @@
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1841.010275303557</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L23" t="n">
-        <v>2758.60299862014</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M23" t="n">
-        <v>3240.782198133642</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N23" t="n">
-        <v>4728.273641396619</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O23" t="n">
-        <v>5638.428524337363</v>
+        <v>4776.556370989981</v>
       </c>
       <c r="P23" t="n">
         <v>6474.295852434777</v>
@@ -6098,19 +6098,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S24" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T24" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U24" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V24" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W24" t="n">
         <v>3503.082427021609</v>
@@ -6129,25 +6129,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I25" t="n">
         <v>140.96</v>
@@ -6192,13 +6192,13 @@
         <v>307.8416045893197</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>892.8334361342871</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
@@ -6232,28 +6232,28 @@
         <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>1025.778834695947</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K26" t="n">
-        <v>1765.421978263786</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L26" t="n">
-        <v>2683.01470158037</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M26" t="n">
-        <v>3165.193901093872</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396619</v>
+        <v>4353.903610841079</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337363</v>
+        <v>5264.058493781823</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434777</v>
+        <v>6099.925821879237</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
@@ -6429,10 +6429,10 @@
         <v>307.8416045893197</v>
       </c>
       <c r="W28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y28" t="n">
         <v>140.96</v>
@@ -6445,76 +6445,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>1841.010275303557</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L29" t="n">
-        <v>2758.60299862014</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M29" t="n">
-        <v>3240.782198133642</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396619</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337363</v>
+        <v>5300.086946950893</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T29" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U29" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V29" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="30">
@@ -6603,25 +6603,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I31" t="n">
         <v>140.96</v>
@@ -6651,28 +6651,28 @@
         <v>307.8416045893197</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893197</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893197</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893197</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>1710.260626351338</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F32" t="n">
         <v>894.2358041069906</v>
@@ -6706,13 +6706,13 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>1841.010275303557</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L32" t="n">
-        <v>2758.60299862014</v>
+        <v>3681.051378010445</v>
       </c>
       <c r="M32" t="n">
         <v>4163.230577523947</v>
@@ -6840,22 +6840,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
         <v>140.96</v>
@@ -6903,13 +6903,13 @@
         <v>307.8416045893197</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546134</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.74462204816</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351342</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071676</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342908</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960357</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H35" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J35" t="n">
-        <v>1025.778834695947</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K35" t="n">
-        <v>1765.421978263786</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L35" t="n">
-        <v>2683.01470158037</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M35" t="n">
-        <v>4163.230577523951</v>
+        <v>3194.417427023051</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396623</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337367</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.29585243478</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362237002</v>
+        <v>7048</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183183</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.71339446401</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542922</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818857</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908809</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.10959566571</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430552</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -7013,16 +7013,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G36" t="n">
-        <v>555.8565327448408</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H36" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I36" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J36" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K36" t="n">
         <v>1250.415257213079</v>
@@ -7046,19 +7046,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R36" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S36" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T36" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U36" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V36" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W36" t="n">
         <v>3503.082427021609</v>
@@ -7077,31 +7077,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5035375626277</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C37" t="n">
-        <v>155.5035375626277</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D37" t="n">
-        <v>155.5035375626277</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E37" t="n">
-        <v>155.5035375626277</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F37" t="n">
-        <v>155.5035375626277</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G37" t="n">
-        <v>155.5035375626277</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H37" t="n">
-        <v>155.5035375626277</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J37" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
         <v>307.8416045893197</v>
@@ -7134,19 +7134,19 @@
         <v>307.8416045893197</v>
       </c>
       <c r="U37" t="n">
-        <v>155.5035375626277</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V37" t="n">
-        <v>155.5035375626277</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W37" t="n">
-        <v>155.5035375626277</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X37" t="n">
-        <v>155.5035375626277</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.5035375626277</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546134</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.74462204816</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324042</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
         <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069907</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960357</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>1025.778834695947</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K38" t="n">
-        <v>1765.421978263786</v>
+        <v>1830.673957362036</v>
       </c>
       <c r="L38" t="n">
-        <v>2683.01470158037</v>
+        <v>2748.266680678619</v>
       </c>
       <c r="M38" t="n">
-        <v>3165.193901093872</v>
+        <v>4280.114215286951</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396623</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337367</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.29585243478</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362237002</v>
+        <v>7048</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183183</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.71339446401</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542922</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818857</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908809</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.10959566571</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430552</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G39" t="n">
-        <v>555.8565327448408</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H39" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I39" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J39" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K39" t="n">
         <v>1250.415257213079</v>
@@ -7283,19 +7283,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S39" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T39" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U39" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W39" t="n">
         <v>3503.082427021609</v>
@@ -7332,13 +7332,13 @@
         <v>307.8416045893197</v>
       </c>
       <c r="H40" t="n">
-        <v>140.9600000000001</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I40" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J40" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
         <v>307.8416045893197</v>
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546134</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.74462204816</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351342</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E41" t="n">
-        <v>1301.812859071676</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069907</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960357</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H41" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>599.7771454756522</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K41" t="n">
-        <v>1339.420289043491</v>
+        <v>1677.761866429961</v>
       </c>
       <c r="L41" t="n">
-        <v>2257.013012360075</v>
+        <v>2595.354589746545</v>
       </c>
       <c r="M41" t="n">
-        <v>2739.192211873577</v>
+        <v>3077.533789260047</v>
       </c>
       <c r="N41" t="n">
-        <v>3304.235275746249</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O41" t="n">
-        <v>4214.390158686993</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P41" t="n">
-        <v>5864.602299897902</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362237002</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183183</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.71339446401</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542922</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818857</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908809</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.10959566571</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430552</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448408</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H42" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I42" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K42" t="n">
         <v>1250.415257213079</v>
@@ -7520,19 +7520,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W42" t="n">
         <v>3503.082427021609</v>
@@ -7551,31 +7551,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C43" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D43" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E43" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F43" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G43" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H43" t="n">
-        <v>140.9600000000001</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I43" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
         <v>307.8416045893197</v>
@@ -7611,16 +7611,16 @@
         <v>307.8416045893197</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.8416045893197</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="44">
@@ -7630,76 +7630,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518834</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.14699002086</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324042</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
         <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069907</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960357</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H44" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397705</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>1101.367131735718</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K44" t="n">
-        <v>1841.010275303557</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L44" t="n">
-        <v>2758.60299862014</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M44" t="n">
-        <v>3240.782198133642</v>
+        <v>4214.862236188701</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396623</v>
+        <v>4779.905300061373</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337367</v>
+        <v>5690.060183002117</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.29585243478</v>
+        <v>6525.92751109953</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362237002</v>
+        <v>7048</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183183</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T44" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U44" t="n">
-        <v>5462.811290515622</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V44" t="n">
-        <v>4826.598134791558</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.77644188151</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.511963638411</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403253</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G45" t="n">
-        <v>555.8565327448408</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H45" t="n">
-        <v>250.989987654688</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I45" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J45" t="n">
-        <v>558.8475295149218</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K45" t="n">
         <v>1250.415257213079</v>
@@ -7757,25 +7757,25 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T45" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U45" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V45" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W45" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X45" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y45" t="n">
         <v>2675.553000545324</v>
@@ -7788,31 +7788,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="I46" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="J46" t="n">
-        <v>290.4466099967137</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
         <v>307.8416045893197</v>
@@ -7842,22 +7842,22 @@
         <v>307.8416045893197</v>
       </c>
       <c r="T46" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U46" t="n">
-        <v>140.9600000000001</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V46" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.9600000000001</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>746.2187031047697</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>822.5705182964562</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>615.8520732695737</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>48.76829182713111</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>835.1386633165832</v>
+        <v>645.1956588512439</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8698,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>301.7997308240109</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>265.4073538855553</v>
       </c>
       <c r="M11" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J14" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>603.2839282494474</v>
       </c>
       <c r="L14" t="n">
-        <v>214.8909222650873</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9166,16 +9166,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>645.1956588512439</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>822.5705182964562</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>294.54111633436</v>
@@ -9403,22 +9403,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>459.8234496459323</v>
       </c>
       <c r="N20" t="n">
-        <v>763.2599394199344</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>931.7660397881868</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>567.8446588919064</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N26" t="n">
-        <v>1008.117854979874</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9901,10 +9901,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.2158265843876</v>
       </c>
       <c r="R26" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,19 +10129,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>931.7660397881868</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>459.8234496459322</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,16 +10354,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>645.1956588512439</v>
       </c>
       <c r="M32" t="n">
-        <v>931.766039788187</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J35" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1008.117854979878</v>
+        <v>459.8234496459323</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10615,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>496.2158265843884</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N38" t="n">
-        <v>1008.117854979878</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>341.7591690772426</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,16 +11077,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>822.57051829646</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
         <v>430.3047365861567</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N44" t="n">
-        <v>931.7660397881905</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11323,10 +11323,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>65.91108999823223</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23439,10 +23439,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>226.3728098387097</v>
+        <v>158.5641654399917</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23569,7 +23569,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.388344292976342</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23721,7 +23721,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>61.16002129528326</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23958,7 +23958,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W19" t="n">
-        <v>61.16002129528326</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X19" t="n">
         <v>247.4436454301076</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24387,10 +24387,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X25" t="n">
         <v>247.4436454301076</v>
@@ -24463,10 +24463,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24669,13 +24669,13 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
-        <v>61.16002129528326</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X28" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y28" t="n">
-        <v>287.4653528494624</v>
+        <v>122.2525643060359</v>
       </c>
     </row>
     <row r="29">
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24864,7 +24864,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R31" t="n">
-        <v>608.1413738827905</v>
+        <v>593.7432716957892</v>
       </c>
       <c r="S31" t="n">
         <v>316.45975839138</v>
@@ -24900,13 +24900,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U31" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W31" t="n">
-        <v>158.5641654399917</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X31" t="n">
         <v>247.4436454301076</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="F32" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>40.13443591884791</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -25143,7 +25143,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X34" t="n">
         <v>247.4436454301076</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.388344292972874</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25335,10 +25335,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I37" t="n">
-        <v>83.00604195770715</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
         <v>199.1703102162162</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.388344292973102</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25462,7 +25462,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.388344292976171</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25572,10 +25572,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>40.13443591884794</v>
+        <v>137.5385800635563</v>
       </c>
       <c r="I40" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.388344292972931</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.388344292976285</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25809,10 +25809,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>199.1703102162162</v>
+        <v>131.3616658174982</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.388344292972533</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.388344292976342</v>
       </c>
     </row>
     <row r="45">
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26018,7 +26018,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>1.533699957573106</v>
       </c>
     </row>
     <row r="46">
@@ -26082,13 +26082,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T46" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16723.9852657937</v>
+        <v>1378975.792486732</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33270.4033922273</v>
+        <v>2732806.110844271</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49816.82151866086</v>
+        <v>4086636.429201811</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68649.41921426968</v>
+        <v>5299282.597556978</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87482.0169098785</v>
+        <v>6511928.765912144</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106314.6146054873</v>
+        <v>7724574.934267304</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125147.2123010961</v>
+        <v>8937221.102622459</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143979.8099967049</v>
+        <v>10149867.27097761</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162812.4076923137</v>
+        <v>11362513.43933277</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181645.0053879225</v>
+        <v>12575159.60768793</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200477.6030835313</v>
+        <v>13787805.77604308</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219310.2007791401</v>
+        <v>15000451.94439825</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238142.7984747491</v>
+        <v>16213098.11275342</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256975.3961703582</v>
+        <v>17425744.2811086</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275807.9938659673</v>
+        <v>18638390.44946378</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245013</v>
+        <v>850079.5022245016</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245015</v>
+        <v>850079.5022245016</v>
       </c>
       <c r="D2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245017</v>
       </c>
       <c r="E2" t="n">
-        <v>761428.9894323125</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="F2" t="n">
         <v>761428.9894323124</v>
       </c>
       <c r="G2" t="n">
+        <v>761428.9894323125</v>
+      </c>
+      <c r="H2" t="n">
+        <v>761428.9894323128</v>
+      </c>
+      <c r="I2" t="n">
+        <v>761428.9894323125</v>
+      </c>
+      <c r="J2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="K2" t="n">
         <v>761428.9894323124</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="M2" t="n">
         <v>761428.9894323125</v>
       </c>
-      <c r="I2" t="n">
-        <v>761428.9894323124</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>761428.9894323125</v>
       </c>
-      <c r="K2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="L2" t="n">
-        <v>761428.9894323128</v>
-      </c>
-      <c r="M2" t="n">
-        <v>761428.9894323127</v>
-      </c>
-      <c r="N2" t="n">
-        <v>761428.9894323127</v>
-      </c>
       <c r="O2" t="n">
-        <v>761428.9894323127</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="P2" t="n">
-        <v>761428.9894323127</v>
+        <v>761428.9894323122</v>
       </c>
     </row>
     <row r="3">
@@ -26429,7 +26429,7 @@
         <v>101346.5898317504</v>
       </c>
       <c r="D4" t="n">
-        <v>101044.2291618174</v>
+        <v>101044.2291618175</v>
       </c>
       <c r="E4" t="n">
         <v>26356.19966309948</v>
@@ -26453,19 +26453,19 @@
         <v>26356.19966309948</v>
       </c>
       <c r="L4" t="n">
-        <v>26356.19966309949</v>
+        <v>26356.19966309948</v>
       </c>
       <c r="M4" t="n">
-        <v>26356.19966309951</v>
+        <v>26356.19966309948</v>
       </c>
       <c r="N4" t="n">
-        <v>26356.19966309951</v>
+        <v>26356.19966309948</v>
       </c>
       <c r="O4" t="n">
-        <v>26356.19966309951</v>
+        <v>26356.19966309948</v>
       </c>
       <c r="P4" t="n">
-        <v>26356.19966309951</v>
+        <v>26356.19966309948</v>
       </c>
     </row>
     <row r="5">
@@ -26533,43 +26533,43 @@
         <v>576125.9123927511</v>
       </c>
       <c r="D6" t="n">
-        <v>576428.2730626841</v>
+        <v>576428.2730626842</v>
       </c>
       <c r="E6" t="n">
-        <v>596093.389769213</v>
+        <v>596093.3897692128</v>
       </c>
       <c r="F6" t="n">
         <v>596093.3897692129</v>
       </c>
       <c r="G6" t="n">
+        <v>596093.389769213</v>
+      </c>
+      <c r="H6" t="n">
+        <v>596093.3897692133</v>
+      </c>
+      <c r="I6" t="n">
+        <v>596093.389769213</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-24130.61023078716</v>
+      </c>
+      <c r="K6" t="n">
         <v>596093.3897692129</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>596093.3897692128</v>
+      </c>
+      <c r="M6" t="n">
         <v>596093.389769213</v>
       </c>
-      <c r="I6" t="n">
-        <v>596093.3897692129</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-24130.61023078693</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>596093.389769213</v>
       </c>
-      <c r="L6" t="n">
-        <v>596093.3897692133</v>
-      </c>
-      <c r="M6" t="n">
-        <v>596093.3897692132</v>
-      </c>
-      <c r="N6" t="n">
-        <v>596093.3897692132</v>
-      </c>
       <c r="O6" t="n">
-        <v>596093.3897692132</v>
+        <v>596093.3897692128</v>
       </c>
       <c r="P6" t="n">
-        <v>596093.3897692132</v>
+        <v>596093.3897692127</v>
       </c>
     </row>
   </sheetData>
@@ -27508,7 +27508,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27690,13 +27690,13 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.85592323974635</v>
+        <v>183.02095922073</v>
       </c>
       <c r="M4" t="n">
         <v>107.6476277959926</v>
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573063</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27924,7 +27924,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I7" t="n">
-        <v>97.40414414470841</v>
+        <v>248.569180125692</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27933,7 +27933,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>183.02095922073</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
         <v>107.6476277959926</v>
@@ -27997,10 +27997,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.388344292976399</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28164,7 +28164,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28173,7 +28173,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
@@ -34986,13 +34986,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
         <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -35062,16 +35062,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>926.8613366834174</v>
+        <v>1673.080039788187</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35083,7 +35083,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>1666.880950718086</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
         <v>1077.286931655656</v>
@@ -35220,7 +35220,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="J7" t="n">
         <v>150.9965757542561</v>
@@ -35229,7 +35229,7 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
-        <v>151.1650359809836</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -35299,16 +35299,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.473091295038142</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1463.989403955261</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L8" t="n">
-        <v>1762</v>
+        <v>1572.056995534661</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35326,7 +35326,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35460,7 +35460,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K10" t="n">
         <v>17.57070160869296</v>
@@ -35469,7 +35469,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35542,16 +35542,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1048.914017256172</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>926.8613366834172</v>
+        <v>1192.268690568972</v>
       </c>
       <c r="M11" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O11" t="n">
         <v>919.3483666068121</v>
@@ -35773,16 +35773,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.98940395526</v>
+        <v>1350.398214681608</v>
       </c>
       <c r="L14" t="n">
-        <v>1141.752258948505</v>
+        <v>1762</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -36010,16 +36010,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L17" t="n">
-        <v>926.8613366834174</v>
+        <v>1572.056995534661</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36031,10 +36031,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>1666.880950718086</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
         <v>118.0642805686905</v>
@@ -36247,22 +36247,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L20" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M20" t="n">
-        <v>487.0496964782857</v>
+        <v>946.873146124218</v>
       </c>
       <c r="N20" t="n">
-        <v>1334.01050898829</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36484,28 +36484,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>1502.516609356543</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>919.3483666068121</v>
+        <v>1487.193025498718</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
@@ -36724,19 +36724,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.1142864321607</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L26" t="n">
         <v>926.8613366834174</v>
       </c>
       <c r="M26" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N26" t="n">
-        <v>1578.86842454823</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
@@ -36745,10 +36745,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>957.65068497047</v>
       </c>
       <c r="R26" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36958,34 +36958,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
-        <v>1502.516609356543</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O29" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>844.3104324216301</v>
+        <v>1304.133882067562</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37198,16 +37198,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L32" t="n">
-        <v>926.861336683417</v>
+        <v>1572.056995534661</v>
       </c>
       <c r="M32" t="n">
-        <v>1418.815736266472</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
         <v>570.7505695683558</v>
@@ -37435,19 +37435,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.1142864321607</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L35" t="n">
         <v>926.8613366834174</v>
       </c>
       <c r="M35" t="n">
-        <v>1495.167551458163</v>
+        <v>946.873146124218</v>
       </c>
       <c r="N35" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
@@ -37459,7 +37459,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37672,19 +37672,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.1142864321607</v>
+        <v>1243.330113016549</v>
       </c>
       <c r="L38" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M38" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N38" t="n">
-        <v>1578.868424548233</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
@@ -37696,7 +37696,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37912,25 +37912,25 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>747.1142864321607</v>
+        <v>1088.873455509403</v>
       </c>
       <c r="L41" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O41" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>1666.88095071809</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38143,7 +38143,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>893.7563986827749</v>
@@ -38152,13 +38152,13 @@
         <v>747.1142864321607</v>
       </c>
       <c r="L44" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N44" t="n">
-        <v>1502.516609356546</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O44" t="n">
         <v>919.3483666068121</v>
@@ -38167,10 +38167,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.4348583860824</v>
+        <v>527.3459483843145</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
